--- a/biology/Botanique/Braya_glabella_var._purpurascens/Braya_glabella_var._purpurascens.xlsx
+++ b/biology/Botanique/Braya_glabella_var._purpurascens/Braya_glabella_var._purpurascens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Braya glabella var. purpurascens est une variété de plantes à fleurs du genre Braya et de la famille des Brassicaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Braya glabella var. purpurascens est une petite plante vivace arctique dont les tiges mesurent 1 à 3 cm de hauteur et dont les feuilles glabres mesurent 4 mm de largeur. Elles sont habituellement entières et comprennent rarement une à deux dents sur le bord. Ses fruits sont d'ovales à elliptiques, jusqu'à oblongs et elliptiques mesurant de 0,5 cm à 1 cm de longueur et de 1,5 mm à 3 mm de largeur. Ils sont de 1,5 à 2,7 fois plus longs que larges. 2n=56.
 </t>
@@ -542,7 +556,9 @@
           <t>Habitat et distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette variété fleurit en juin-juillet sur des sols calcaires et pierreux ou des pentes rocheuses en bord de mer, jusqu'à 1 800 mètres d'altitude. On la rencontre en Alaska, le Nunavut, dans le Groenland, dans le Svalbard, en Nouvelle-Zemble, dans l'Arctique norvégien et l'Arctique sibérien.
 </t>
@@ -573,10 +589,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Synonymes
-Platypetalum purpurascens R.Brown[2]
+Platypetalum purpurascens R.Brown
 Braya arctica Hooker
 Braya purpurascens (R.Brown) Bunge ex Ledeb.
 Braya purpurascens var. dubia (R.Brown) O.E.Schulz
